--- a/Data/교육09_네이버웹툰크롤링.xlsx
+++ b/Data/교육09_네이버웹툰크롤링.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FDX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgh\DOCUME~1\카카오~1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3200018C-CC26-4D20-9385-FEAA1568CFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0D150F-F4E2-40E1-908D-80C4714B9EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22335" yWindow="1815" windowWidth="21735" windowHeight="11550" xr2:uid="{588544B4-1B64-4EDF-B76A-E4181A063E5A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{588544B4-1B64-4EDF-B76A-E4181A063E5A}"/>
   </bookViews>
   <sheets>
     <sheet name="웹툰명_220406" sheetId="1" r:id="rId1"/>
+    <sheet name="Top5" sheetId="2" r:id="rId2"/>
+    <sheet name="Log" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>베스트댓글내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +48,14 @@
   </si>
   <si>
     <t>싫어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹툰 썸네일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹툰명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +141,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,7 +461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51005097-0573-4529-AC86-F0FEC789BFCD}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -474,7 +489,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AB839B-7F2D-43FA-BC83-F6D33344F058}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.875" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F64CB08-C1C9-4170-85A5-21DC00174CB4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="578960f7-7126-4e9a-87f0-be8761748ea8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e68fe36a-05bb-443d-bff8-3bde19c9dd8b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101000E6B2CFC3EA1A347B8DBE3DC96588C49" ma:contentTypeVersion="12" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="d4180b85779d5f8c16452840c16ff681">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="578960f7-7126-4e9a-87f0-be8761748ea8" xmlns:ns3="e68fe36a-05bb-443d-bff8-3bde19c9dd8b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62ece903b9a703a92ecb70e878abb5c0" ns2:_="" ns3:_="">
     <xsd:import namespace="578960f7-7126-4e9a-87f0-be8761748ea8"/>
@@ -669,34 +776,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="578960f7-7126-4e9a-87f0-be8761748ea8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e68fe36a-05bb-443d-bff8-3bde19c9dd8b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C3A345-727F-49BC-806F-4F94EB7FDD50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6D2880-D3C2-4E9E-B6DE-97F858DFAC5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="578960f7-7126-4e9a-87f0-be8761748ea8"/>
+    <ds:schemaRef ds:uri="e68fe36a-05bb-443d-bff8-3bde19c9dd8b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF70E946-D22B-4666-BFCA-4C79D151E4F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF70E946-D22B-4666-BFCA-4C79D151E4F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D6D2880-D3C2-4E9E-B6DE-97F858DFAC5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C3A345-727F-49BC-806F-4F94EB7FDD50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="578960f7-7126-4e9a-87f0-be8761748ea8"/>
+    <ds:schemaRef ds:uri="e68fe36a-05bb-443d-bff8-3bde19c9dd8b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>